--- a/resultados_tabela.xlsx
+++ b/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB28C45-EC8E-4E96-B6E7-BF143DF14CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DDB28C45-EC8E-4E96-B6E7-BF143DF14CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66FB3F67-A6CD-492D-B136-00C0FC9CCBE1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +935,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1012,8 +1031,12 @@
       <c r="O2" s="1">
         <v>0.381967076625438</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2, N2,O2)</f>
+        <v>2.0380004795200741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -1059,8 +1082,12 @@
       <c r="O3" s="1">
         <v>0.37151098959824203</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3, N3,O3)</f>
+        <v>2.1396358370518911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -1106,8 +1133,12 @@
       <c r="O4" s="1">
         <v>0.37144858243367601</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.230080899268287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1153,8 +1184,12 @@
       <c r="O5" s="1">
         <v>0.39491622531583298</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4486959982578651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1200,8 +1235,12 @@
       <c r="O6" s="1">
         <v>0.37912931989089899</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5017084452691809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1247,8 +1286,12 @@
       <c r="O7" s="1">
         <v>0.38783097602364802</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6531483738016783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1294,8 +1337,12 @@
       <c r="O8" s="1">
         <v>0.37359583074352798</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.941688838010919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1341,8 +1388,12 @@
       <c r="O9" s="1">
         <v>0.38385905731893299</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0944743043953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1388,8 +1439,12 @@
       <c r="O10" s="1">
         <v>0.37154996094061599</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1573648531769321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1435,8 +1490,12 @@
       <c r="O11" s="1">
         <v>0.3695912071145</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2616608316947699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1482,8 +1541,12 @@
       <c r="O12" s="1">
         <v>0.38383496428076003</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4358648673714249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1529,8 +1592,12 @@
       <c r="O13" s="1">
         <v>0.37163773188664601</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4956117476843662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1576,8 +1643,12 @@
       <c r="O14" s="1">
         <v>0.36180962596916699</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8449789103621601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1623,8 +1694,12 @@
       <c r="O15" s="1">
         <v>0.36310146036921997</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9478205930649848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1670,8 +1745,12 @@
       <c r="O16" s="1">
         <v>0.36130477251204202</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0532757173195151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1717,8 +1796,12 @@
       <c r="O17" s="1">
         <v>0.365377693799603</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.17631029157184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1764,8 +1847,12 @@
       <c r="O18" s="1">
         <v>0.35666325491080098</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.241262666039574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1811,8 +1898,12 @@
       <c r="O19" s="1">
         <v>0.37359095611410698</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.412068649921062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1858,8 +1949,12 @@
       <c r="O20" s="1">
         <v>0.35871863808792298</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7721227559358499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1905,8 +2000,12 @@
       <c r="O21" s="1">
         <v>0.35551869165491701</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.867825463741096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1952,8 +2051,12 @@
       <c r="O22" s="1">
         <v>0.36779797601959202</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.999206143223075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1999,8 +2102,12 @@
       <c r="O23" s="1">
         <v>0.37029044923071902</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1191294635958711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2046,8 +2153,12 @@
       <c r="O24" s="1">
         <v>0.36811866725257503</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2021890684091181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2093,8 +2204,12 @@
       <c r="O25" s="1">
         <v>0.343351049219357</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2271660147177306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2140,8 +2255,12 @@
       <c r="O26" s="1">
         <v>0.326406353071235</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6028298421254989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2187,8 +2306,12 @@
       <c r="O27" s="1">
         <v>0.36261477517580198</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8196147005105572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2234,8 +2357,12 @@
       <c r="O28" s="1">
         <v>0.33922695568265099</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8065717259289191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2281,8 +2408,12 @@
       <c r="O29" s="1">
         <v>0.35143817972973701</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.936078752551637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2328,8 +2459,12 @@
       <c r="O30" s="1">
         <v>0.33897946031099901</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9984440878228111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2375,8 +2510,12 @@
       <c r="O31" s="1">
         <v>0.33643117874823097</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0561126210050391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2422,8 +2561,12 @@
       <c r="O32" s="1">
         <v>0.31861087925876003</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5226455410528481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2469,8 +2612,12 @@
       <c r="O33" s="1">
         <v>0.31818226694105001</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5925324093180309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2516,8 +2663,12 @@
       <c r="O34" s="1">
         <v>0.32456437827847401</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6945485424700428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2563,8 +2714,12 @@
       <c r="O35" s="1">
         <v>0.31818226694105001</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7468975359301981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2610,8 +2765,12 @@
       <c r="O36" s="1">
         <v>0.30647918937417101</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7842046354720571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2657,8 +2816,12 @@
       <c r="O37" s="1">
         <v>0.32497548065455001</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9271728789952789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2704,8 +2867,12 @@
       <c r="O38" s="1">
         <v>0.30841611698382099</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4253522853615741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2751,8 +2918,12 @@
       <c r="O39" s="1">
         <v>0.30110547631656198</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4855177098493348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2798,8 +2969,12 @@
       <c r="O40" s="1">
         <v>0.30868916933205698</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.580495163850457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2845,8 +3020,12 @@
       <c r="O41" s="1">
         <v>0.31060163200070501</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6519379113683261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2892,8 +3071,12 @@
       <c r="O42" s="1">
         <v>0.30455586100159598</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.70944269507127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2939,8 +3122,12 @@
       <c r="O43" s="1">
         <v>0.29979138688472001</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.764081908263335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2986,8 +3173,12 @@
       <c r="O44" s="1">
         <v>0.29241442668918499</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3226304612071249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3033,8 +3224,12 @@
       <c r="O45" s="1">
         <v>0.30050602597705101</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.413501895183662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3080,8 +3275,12 @@
       <c r="O46" s="1">
         <v>0.29414281688782901</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.461858985892988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3127,8 +3326,12 @@
       <c r="O47" s="1">
         <v>0.29050228970389003</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5209833809669659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3174,8 +3377,12 @@
       <c r="O48" s="1">
         <v>0.292182008711668</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.593149450930603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3221,8 +3428,12 @@
       <c r="O49" s="1">
         <v>0.29438599190635201</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6720278111992601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3268,8 +3479,12 @@
       <c r="O50" s="1">
         <v>0.28246068299251098</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2461754161811529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3315,8 +3530,12 @@
       <c r="O51" s="1">
         <v>0.27083906593840001</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2655270438462849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3362,8 +3581,12 @@
       <c r="O52" s="1">
         <v>0.27274475849930802</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3309083093831409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3409,8 +3632,12 @@
       <c r="O53" s="1">
         <v>0.277154018389701</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4125290925218639</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3456,8 +3683,12 @@
       <c r="O54" s="1">
         <v>0.28051107174056999</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4866426657774299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3503,8 +3734,12 @@
       <c r="O55" s="1">
         <v>0.27646252942050897</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.528356791916472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3550,8 +3785,12 @@
       <c r="O56" s="1">
         <v>0.260861671559387</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1299889572445241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3597,8 +3836,12 @@
       <c r="O57" s="1">
         <v>0.26132006228547999</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1863265710278341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3644,8 +3887,12 @@
       <c r="O58" s="1">
         <v>0.27650644811154201</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.282907054493061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3691,8 +3938,12 @@
       <c r="O59" s="1">
         <v>0.26908755202885198</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3218462558261341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3738,8 +3989,12 @@
       <c r="O60" s="1">
         <v>0.27270083980827498</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3872819714692928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3785,8 +4040,12 @@
       <c r="O61" s="1">
         <v>0.26495275791592898</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4241762255817141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3832,8 +4091,12 @@
       <c r="O62" s="1">
         <v>0.25933507125236899</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0704823436210118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3879,8 +4142,12 @@
       <c r="O63" s="1">
         <v>0.27456328128398699</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1626185657446571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3926,8 +4193,12 @@
       <c r="O64" s="1">
         <v>0.27256975134101302</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2148472141136861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3973,8 +4244,12 @@
       <c r="O65" s="1">
         <v>0.25688466939621002</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2237610747862702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4020,8 +4295,12 @@
       <c r="O66" s="1">
         <v>0.26871444752816298</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3076638347690888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4067,8 +4346,12 @@
       <c r="O67" s="1">
         <v>0.26309676086460299</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67, N67,O67)</f>
+        <v>1.342681379276788</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4114,8 +4397,12 @@
       <c r="O68" s="1">
         <v>0.253338292334919</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.003504549832118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4161,8 +4448,12 @@
       <c r="O69" s="1">
         <v>0.25558425058129602</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0525869101557639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4208,8 +4499,12 @@
       <c r="O70" s="1">
         <v>0.249524967624972</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0912931382510491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4255,8 +4550,12 @@
       <c r="O71" s="1">
         <v>0.24731816193294201</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.134186854844597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4302,8 +4601,12 @@
       <c r="O72" s="1">
         <v>0.25882797553408499</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2068756956904561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4349,8 +4652,12 @@
       <c r="O73" s="1">
         <v>0.246094766209837</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2250558483652789</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4396,8 +4703,12 @@
       <c r="O74" s="1">
         <v>0.24533110927345</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92922055928750302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4443,8 +4754,12 @@
       <c r="O75" s="1">
         <v>0.23499889240379401</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93433126603375705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4490,8 +4805,12 @@
       <c r="O76" s="1">
         <v>0.24279064376047901</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.009076109234605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4537,8 +4856,12 @@
       <c r="O77" s="1">
         <v>0.23867230017881799</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0488981293694239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4584,8 +4907,12 @@
       <c r="O78" s="1">
         <v>0.230996706845807</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0704044525270371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4631,8 +4958,12 @@
       <c r="O79" s="1">
         <v>0.23556977485320801</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.131792834917102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4678,8 +5009,12 @@
       <c r="O80" s="1">
         <v>0.22576440336956199</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8353611617071921</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4725,8 +5060,12 @@
       <c r="O81" s="1">
         <v>0.21623668735784499</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8507336500245779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4772,8 +5111,12 @@
       <c r="O82" s="1">
         <v>0.211358986461642</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87882819156882197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4819,8 +5162,12 @@
       <c r="O83" s="1">
         <v>0.238680541910261</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.968570277715463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4866,8 +5213,12 @@
       <c r="O84" s="1">
         <v>0.22267763022547599</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98535216340182008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4913,8 +5264,12 @@
       <c r="O85" s="1">
         <v>0.218807886609518</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0038595205630381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4960,8 +5315,12 @@
       <c r="O86" s="1">
         <v>0.193879377619537</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68560555320675298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5007,8 +5366,12 @@
       <c r="O87" s="1">
         <v>0.20318064285120799</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78327476883269498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5054,8 +5417,12 @@
       <c r="O88" s="1">
         <v>0.20478694032362499</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79384764172825095</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5101,8 +5468,12 @@
       <c r="O89" s="1">
         <v>0.210245661504781</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86159655304623195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5148,8 +5519,12 @@
       <c r="O90" s="1">
         <v>0.201501272774575</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83985880372542399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5195,8 +5570,12 @@
       <c r="O91" s="1">
         <v>0.210584675969751</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92759870946132694</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5242,8 +5621,12 @@
       <c r="O92" s="1">
         <v>0.19134365793917801</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60987361425781206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5289,8 +5672,12 @@
       <c r="O93" s="1">
         <v>0.19901130886363999</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61694045952778021</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5336,8 +5723,12 @@
       <c r="O94" s="1">
         <v>0.178867411320003</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6810335328765631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5383,8 +5774,12 @@
       <c r="O95" s="1">
         <v>0.18791441535601799</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74618758359448001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5430,8 +5825,12 @@
       <c r="O96" s="1">
         <v>0.19964930953434301</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.807506460374674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5476,6 +5875,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.185533472913296</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81931973853108109</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela.xlsx
+++ b/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6164DC-2E54-4B3B-8EA7-EFE2B525F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3B6164DC-2E54-4B3B-8EA7-EFE2B525F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F6961C-57B9-4A67-A41C-13002373431B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="W81" sqref="W81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,6 +990,9 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1021,6 +1040,10 @@
       <c r="O2" s="1">
         <v>0.38234839581727598</v>
       </c>
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2,)</f>
+        <v>2.043911999943762</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1068,6 +1091,10 @@
       <c r="O3" s="1">
         <v>0.39164425351459298</v>
       </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3,)</f>
+        <v>2.1936037164243611</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1115,6 +1142,10 @@
       <c r="O4" s="1">
         <v>0.37713523409517502</v>
       </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2528138244879501</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1162,6 +1193,10 @@
       <c r="O5" s="1">
         <v>0.39359205068752201</v>
       </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4326456996853141</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1209,6 +1244,10 @@
       <c r="O6" s="1">
         <v>0.37130671711475699</v>
       </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4522606687327371</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1256,6 +1295,10 @@
       <c r="O7" s="1">
         <v>0.38031255004522002</v>
       </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6214908163357098</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1303,6 +1346,10 @@
       <c r="O8" s="1">
         <v>0.36832255818391801</v>
       </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9259674080460141</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1350,6 +1397,10 @@
       <c r="O9" s="1">
         <v>0.33882102555209598</v>
       </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.974949171929564</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1397,6 +1448,10 @@
       <c r="O10" s="1">
         <v>0.36246717467734002</v>
       </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.137423735347467</v>
+      </c>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1445,6 +1500,10 @@
       <c r="O11" s="1">
         <v>0.38233144037519001</v>
       </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.312157950534206</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1492,6 +1551,10 @@
       <c r="O12" s="1">
         <v>0.36593899826818999</v>
       </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3505591178426837</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1539,6 +1602,10 @@
       <c r="O13" s="1">
         <v>0.37412538424392999</v>
       </c>
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5016334267403679</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1586,6 +1653,10 @@
       <c r="O14" s="1">
         <v>0.37221999607328998</v>
       </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8833775501810528</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1633,6 +1704,10 @@
       <c r="O15" s="1">
         <v>0.36275224004676099</v>
       </c>
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9520557278500781</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1680,8 +1755,12 @@
       <c r="O16" s="1">
         <v>0.36672563859072099</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.064956647538986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1727,8 +1806,12 @@
       <c r="O17" s="1">
         <v>0.361097635699348</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1507347112993487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1774,8 +1857,12 @@
       <c r="O18" s="1">
         <v>0.36536882928943198</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2612917514006439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1821,8 +1908,12 @@
       <c r="O19" s="1">
         <v>0.35941490163853501</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3315235235533929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1868,8 +1959,12 @@
       <c r="O20" s="1">
         <v>0.34628563192771</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7281512498730081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1915,8 +2010,12 @@
       <c r="O21" s="1">
         <v>0.36099542753618102</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8789078921820122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1962,8 +2061,12 @@
       <c r="O22" s="1">
         <v>0.349902766831517</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9234794601888949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2009,8 +2112,12 @@
       <c r="O23" s="1">
         <v>0.34779758203094102</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.999137252478294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2056,8 +2163,12 @@
       <c r="O24" s="1">
         <v>0.34829835087758698</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0952696442885204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2103,8 +2214,12 @@
       <c r="O25" s="1">
         <v>0.34099197209811499</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1560956426854792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2150,8 +2265,12 @@
       <c r="O26" s="1">
         <v>0.35004609272666298</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6802013581333779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2197,8 +2316,12 @@
       <c r="O27" s="1">
         <v>0.341191128424986</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.732579099059079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2244,8 +2367,12 @@
       <c r="O28" s="1">
         <v>0.33783742471302503</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8070774279020929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2291,8 +2418,12 @@
       <c r="O29" s="1">
         <v>0.33854632162641402</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8908030543590271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2338,8 +2469,12 @@
       <c r="O30" s="1">
         <v>0.34227442979218498</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.988627696360791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2385,8 +2520,12 @@
       <c r="O31" s="1">
         <v>0.32851510161646102</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0254879832695689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2432,8 +2571,12 @@
       <c r="O32" s="1">
         <v>0.31430866422419701</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.509109332060929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2479,8 +2622,12 @@
       <c r="O33" s="1">
         <v>0.33172405253877102</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.645102550856927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2526,8 +2673,12 @@
       <c r="O34" s="1">
         <v>0.33086857918444201</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7050581069195538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2573,8 +2724,12 @@
       <c r="O35" s="1">
         <v>0.32524403152630399</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7712626460484748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2620,8 +2775,12 @@
       <c r="O36" s="1">
         <v>0.32621442697535802</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.850234340150144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2667,8 +2826,12 @@
       <c r="O37" s="1">
         <v>0.32680067064107898</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9423452490736728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2714,8 +2877,12 @@
       <c r="O38" s="1">
         <v>0.31233002219934902</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4403399072965311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2761,8 +2928,12 @@
       <c r="O39" s="1">
         <v>0.30666234619267602</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4987758823757962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2808,8 +2979,12 @@
       <c r="O40" s="1">
         <v>0.31430866422419701</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.591492379035411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2855,8 +3030,12 @@
       <c r="O41" s="1">
         <v>0.31017183928272901</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6526739530158769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2902,8 +3081,12 @@
       <c r="O42" s="1">
         <v>0.31577750217845901</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.745474282362832</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2949,8 +3132,12 @@
       <c r="O43" s="1">
         <v>0.30681425504635301</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7817073249288562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2996,8 +3183,12 @@
       <c r="O44" s="1">
         <v>0.29450521462753299</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3324084857780312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3043,8 +3234,12 @@
       <c r="O45" s="1">
         <v>0.29239853558772799</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3924139259525208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3090,8 +3285,12 @@
       <c r="O46" s="1">
         <v>0.30474077534569699</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.502185023468469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3137,8 +3336,12 @@
       <c r="O47" s="1">
         <v>0.29192318124469802</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5229136371631622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3184,8 +3387,12 @@
       <c r="O48" s="1">
         <v>0.30041518634230002</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.620662893050818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3231,8 +3438,12 @@
       <c r="O49" s="1">
         <v>0.29450728413295402</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6744943089433058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3278,8 +3489,12 @@
       <c r="O50" s="1">
         <v>0.29253329391351202</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2678343694436309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3325,8 +3540,12 @@
       <c r="O51" s="1">
         <v>0.28812065514836199</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3162075919206688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3372,8 +3591,12 @@
       <c r="O52" s="1">
         <v>0.29636605575014502</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.409024901378906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3419,8 +3642,12 @@
       <c r="O53" s="1">
         <v>0.29398230014743199</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.465895485289533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3466,8 +3693,12 @@
       <c r="O54" s="1">
         <v>0.282514048360616</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.485286412186813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3513,8 +3744,12 @@
       <c r="O55" s="1">
         <v>0.29212527877738997</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.583907296882437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3560,8 +3795,12 @@
       <c r="O56" s="1">
         <v>0.27582956201113401</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.131733817330282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3607,8 +3846,12 @@
       <c r="O57" s="1">
         <v>0.27645109149455999</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2269069105712449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3654,8 +3897,12 @@
       <c r="O58" s="1">
         <v>0.28848284473197799</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.317638580867283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3701,8 +3948,12 @@
       <c r="O59" s="1">
         <v>0.27149856238301201</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3346915492172728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3748,8 +3999,12 @@
       <c r="O60" s="1">
         <v>0.29431769424781801</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.374913438928669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3795,8 +4050,12 @@
       <c r="O61" s="1">
         <v>0.284403849820066</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4756165613528309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3842,8 +4101,12 @@
       <c r="O62" s="1">
         <v>0.26734340052705702</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0714178686121629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3889,8 +4152,12 @@
       <c r="O63" s="1">
         <v>0.26129561833416798</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.098404660887359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3936,8 +4203,12 @@
       <c r="O64" s="1">
         <v>0.27460075555063401</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.185467776827229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3983,8 +4254,12 @@
       <c r="O65" s="1">
         <v>0.25744648112235702</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1846885023989522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4030,8 +4305,12 @@
       <c r="O66" s="1">
         <v>0.27134831588919101</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2637100180168499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4077,8 +4356,12 @@
       <c r="O67" s="1">
         <v>0.27236996423974003</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67,)</f>
+        <v>1.3205960280695268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4124,8 +4407,12 @@
       <c r="O68" s="1">
         <v>0.24647840490205999</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96972308575312294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4171,8 +4458,12 @@
       <c r="O69" s="1">
         <v>0.25227392635997098</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.035702117849332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4218,8 +4509,12 @@
       <c r="O70" s="1">
         <v>0.26715617212582599</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1261934061683789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4265,8 +4560,12 @@
       <c r="O71" s="1">
         <v>0.26553531751376103</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1600752111307822</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4312,8 +4611,12 @@
       <c r="O72" s="1">
         <v>0.26204777656165401</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2044307552850579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4359,8 +4662,12 @@
       <c r="O73" s="1">
         <v>0.251610793717089</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2224534528638611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4406,8 +4713,12 @@
       <c r="O74" s="1">
         <v>0.27481204295487</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0574810840066069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4453,8 +4764,12 @@
       <c r="O75" s="1">
         <v>0.24808749037641001</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99184539592126686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4500,8 +4815,12 @@
       <c r="O76" s="1">
         <v>0.25150760698237301</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0390149684486061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4547,8 +4866,12 @@
       <c r="O77" s="1">
         <v>0.25555608196868401</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1195170324241839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4594,8 +4917,12 @@
       <c r="O78" s="1">
         <v>0.258728824161294</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1489781660778819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4641,8 +4968,12 @@
       <c r="O79" s="1">
         <v>0.24234228911274699</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>1.153039501524862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4688,8 +5019,12 @@
       <c r="O80" s="1">
         <v>0.22597487809759401</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83059526833058206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4735,8 +5070,12 @@
       <c r="O81" s="1">
         <v>0.23126782243668401</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.885650395174576</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4782,8 +5121,12 @@
       <c r="O82" s="1">
         <v>0.23978246351664401</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93758606621427398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4829,8 +5172,12 @@
       <c r="O83" s="1">
         <v>0.24588366357750199</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>1.000838325667178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4876,8 +5223,12 @@
       <c r="O84" s="1">
         <v>0.222199486869708</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98731381701154997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4923,8 +5274,12 @@
       <c r="O85" s="1">
         <v>0.238958621646637</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>1.054987173310427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4970,8 +5325,12 @@
       <c r="O86" s="1">
         <v>0.215120113852834</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75984808840194007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5017,8 +5376,12 @@
       <c r="O87" s="1">
         <v>0.21114311037976499</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79717555383577399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5064,8 +5427,12 @@
       <c r="O88" s="1">
         <v>0.21952735688819</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84276089463808002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5111,8 +5478,12 @@
       <c r="O89" s="1">
         <v>0.22334083718988701</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88818379219319299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5158,8 +5529,12 @@
       <c r="O90" s="1">
         <v>0.188229946442279</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84057546716777398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5205,8 +5580,12 @@
       <c r="O91" s="1">
         <v>0.20677171586383</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92469255520481197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5252,8 +5631,12 @@
       <c r="O92" s="1">
         <v>0.17514375798374501</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64512972007590708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5299,8 +5682,12 @@
       <c r="O93" s="1">
         <v>0.171534639135585</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65905964494227598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5346,8 +5733,12 @@
       <c r="O94" s="1">
         <v>0.188396206586502</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70950280929921306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5393,8 +5784,12 @@
       <c r="O95" s="1">
         <v>0.205234132389774</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7797818315125491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5440,8 +5835,12 @@
       <c r="O96" s="1">
         <v>0.176451590069091</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7739987449538781</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5486,6 +5885,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.20282627908280099</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.838663613352576</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tabela.xlsx
+++ b/resultados_tabela.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68ab3f4a40a4996c/TCC/RLLib_códigos/tcc-final-models/tcc-final-models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C43E78-6C69-4971-BFF2-A6FB6C0EFF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{93C43E78-6C69-4971-BFF2-A6FB6C0EFF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D7C3705-91D3-4CEA-A438-CBB18C34526F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados_tabela" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Temperatura ambiente</t>
   </si>
@@ -66,11 +79,14 @@
   <si>
     <t>Custo de água total (R$)</t>
   </si>
+  <si>
+    <t>Custo total (R$)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="T90" sqref="T90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +935,7 @@
     <col min="2" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +981,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -1012,8 +1031,12 @@
       <c r="O2" s="1">
         <v>0.36899882010541502</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(M2,N2,O2)</f>
+        <v>2.3802825071744698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -1059,8 +1082,12 @@
       <c r="O3" s="1">
         <v>0.37297275934289598</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R66" si="0">SUM(M3,N3,O3)</f>
+        <v>2.5825419192065757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>15</v>
       </c>
@@ -1106,8 +1133,12 @@
       <c r="O4" s="1">
         <v>0.38174361278226498</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0565361699076541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -1153,8 +1184,12 @@
       <c r="O5" s="1">
         <v>0.37818090454554498</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.404055905310464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -1200,8 +1235,12 @@
       <c r="O6" s="1">
         <v>0.36980805502994402</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6929286162864159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -1247,8 +1286,12 @@
       <c r="O7" s="1">
         <v>0.38377740177251202</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8157215733286418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>16</v>
       </c>
@@ -1294,8 +1337,12 @@
       <c r="O8" s="1">
         <v>0.35982562609393698</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2131625079306141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -1341,8 +1388,12 @@
       <c r="O9" s="1">
         <v>0.35563890486030703</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.50535610590055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -1388,8 +1439,12 @@
       <c r="O10" s="1">
         <v>0.36204962711044097</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7336719514725116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16</v>
       </c>
@@ -1435,8 +1490,12 @@
       <c r="O11" s="1">
         <v>0.36177783697958998</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2215562057739091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -1482,8 +1541,12 @@
       <c r="O12" s="1">
         <v>0.362522551368399</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4868133402522492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>16</v>
       </c>
@@ -1529,8 +1592,12 @@
       <c r="O13" s="1">
         <v>0.36732582381821799</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7750252850189838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -1576,8 +1643,12 @@
       <c r="O14" s="1">
         <v>0.368485780887718</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3474680547622704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -1623,8 +1694,12 @@
       <c r="O15" s="1">
         <v>0.35117125640733898</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4495861489316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1670,8 +1745,12 @@
       <c r="O16" s="1">
         <v>0.35330159913943998</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6926952128824557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1717,8 +1796,12 @@
       <c r="O17" s="1">
         <v>0.35042975252314501</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1429528021685282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1764,8 +1847,12 @@
       <c r="O18" s="1">
         <v>0.36215018128741</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3480579761493363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1811,8 +1898,12 @@
       <c r="O19" s="1">
         <v>0.35768200291577501</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <f t="shared" si="0"/>
+        <v>3.757955943019887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1858,8 +1949,12 @@
       <c r="O20" s="1">
         <v>0.35000666688786602</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.111350634585158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1905,8 +2000,12 @@
       <c r="O21" s="1">
         <v>0.344292104015888</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2466821768501872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -1952,8 +2051,12 @@
       <c r="O22" s="1">
         <v>0.35649924220358298</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8741428703709189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1999,8 +2102,12 @@
       <c r="O23" s="1">
         <v>0.34838510577655202</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.99381772453554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -2046,8 +2153,12 @@
       <c r="O24" s="1">
         <v>0.346842934683538</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3341904646528473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -2093,8 +2204,12 @@
       <c r="O25" s="1">
         <v>0.34222432985855</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3562110290357792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -2140,8 +2255,12 @@
       <c r="O26" s="1">
         <v>0.34017533909668801</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0544483946429311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>19</v>
       </c>
@@ -2187,8 +2306,12 @@
       <c r="O27" s="1">
         <v>0.32165274042568998</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1580197671660351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>19</v>
       </c>
@@ -2234,8 +2357,12 @@
       <c r="O28" s="1">
         <v>0.333593253652605</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5854549656150239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>19</v>
       </c>
@@ -2281,8 +2408,12 @@
       <c r="O29" s="1">
         <v>0.34029392278009402</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6920412616757652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2328,8 +2459,12 @@
       <c r="O30" s="1">
         <v>0.340240460351316</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2428290979721517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>19</v>
       </c>
@@ -2375,8 +2510,12 @@
       <c r="O31" s="1">
         <v>0.32562691146286599</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2645657304318498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>20</v>
       </c>
@@ -2422,8 +2561,12 @@
       <c r="O32" s="1">
         <v>0.30913977821919603</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8512177897809872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>20</v>
       </c>
@@ -2469,8 +2612,12 @@
       <c r="O33" s="1">
         <v>0.32774232246729901</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2753363044796409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>20</v>
       </c>
@@ -2516,8 +2663,12 @@
       <c r="O34" s="1">
         <v>0.31490603808803302</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3936560512010527</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -2563,8 +2714,12 @@
       <c r="O35" s="1">
         <v>0.30907185136069798</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8208546527791336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -2610,8 +2765,12 @@
       <c r="O36" s="1">
         <v>0.32497942284704001</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9286815749842541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>20</v>
       </c>
@@ -2657,8 +2816,12 @@
       <c r="O37" s="1">
         <v>0.31406229768390997</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>2.970067615849366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -2704,8 +2867,12 @@
       <c r="O38" s="1">
         <v>0.29050953670211599</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7432258347716301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
@@ -2751,8 +2918,12 @@
       <c r="O39" s="1">
         <v>0.30460708729675201</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1856505308376901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -2798,8 +2969,12 @@
       <c r="O40" s="1">
         <v>0.292985716761478</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.317629321325374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>21</v>
       </c>
@@ -2845,8 +3020,12 @@
       <c r="O41" s="1">
         <v>0.29869057320126702</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6348776238194418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>21</v>
       </c>
@@ -2892,8 +3071,12 @@
       <c r="O42" s="1">
         <v>0.29459700249159998</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000225475195128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -2939,8 +3122,12 @@
       <c r="O43" s="1">
         <v>0.28872920868449498</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.14584625946538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2986,8 +3173,12 @@
       <c r="O44" s="1">
         <v>0.27665322188038399</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6183801827254101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>22</v>
       </c>
@@ -3033,8 +3224,12 @@
       <c r="O45" s="1">
         <v>0.28549682154287997</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>2.012466681884411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>22</v>
       </c>
@@ -3080,8 +3275,12 @@
       <c r="O46" s="1">
         <v>0.28658755792027202</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2080875755408913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>22</v>
       </c>
@@ -3127,8 +3326,12 @@
       <c r="O47" s="1">
         <v>0.29876469796531402</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4526937721548654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>22</v>
       </c>
@@ -3174,8 +3377,12 @@
       <c r="O48" s="1">
         <v>0.28103082230173099</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8643428711715058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -3221,8 +3428,12 @@
       <c r="O49" s="1">
         <v>0.27495890816967899</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6299562648225696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>23</v>
       </c>
@@ -3268,8 +3479,12 @@
       <c r="O50" s="1">
         <v>0.28080774192550301</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.543736810760572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>23</v>
       </c>
@@ -3315,8 +3530,12 @@
       <c r="O51" s="1">
         <v>0.28247012966958202</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7637945966619279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>23</v>
       </c>
@@ -3362,8 +3581,12 @@
       <c r="O52" s="1">
         <v>0.28052051841764097</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0370364601288191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>23</v>
       </c>
@@ -3409,8 +3632,12 @@
       <c r="O53" s="1">
         <v>0.26723051786552598</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1654778586735168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -3456,8 +3683,12 @@
       <c r="O54" s="1">
         <v>0.26768116952559801</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4880641274867119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>23</v>
       </c>
@@ -3503,8 +3734,12 @@
       <c r="O55" s="1">
         <v>0.28042967878288999</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <f t="shared" si="0"/>
+        <v>2.635759463558232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>24</v>
       </c>
@@ -3550,8 +3785,12 @@
       <c r="O56" s="1">
         <v>0.26703345763513298</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4948065206120948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>24</v>
       </c>
@@ -3597,8 +3836,12 @@
       <c r="O57" s="1">
         <v>0.26423053314668299</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7177846018724738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>24</v>
       </c>
@@ -3644,8 +3887,12 @@
       <c r="O58" s="1">
         <v>0.27066405878010402</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.920844891157873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>24</v>
       </c>
@@ -3691,8 +3938,12 @@
       <c r="O59" s="1">
         <v>0.26888945468645797</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2907777410848977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>24</v>
       </c>
@@ -3738,8 +3989,12 @@
       <c r="O60" s="1">
         <v>0.27256975134101302</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3463569858206661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>24</v>
       </c>
@@ -3785,8 +4040,12 @@
       <c r="O61" s="1">
         <v>0.26652757490830298</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5614238618305474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>25</v>
       </c>
@@ -3832,8 +4091,12 @@
       <c r="O62" s="1">
         <v>0.257385460000427</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1">
+        <f t="shared" si="0"/>
+        <v>1.359821631524494</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>25</v>
       </c>
@@ -3879,8 +4142,12 @@
       <c r="O63" s="1">
         <v>0.26876414303774598</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.698254388806002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -3926,8 +4193,12 @@
       <c r="O64" s="1">
         <v>0.27294744368358997</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1">
+        <f t="shared" si="0"/>
+        <v>1.902500647630321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -3973,8 +4244,12 @@
       <c r="O65" s="1">
         <v>0.25334564610435001</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.889245477978492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -4020,8 +4295,12 @@
       <c r="O66" s="1">
         <v>0.259241457051753</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2205748144256221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -4067,8 +4346,12 @@
       <c r="O67" s="1">
         <v>0.27179783106218502</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1">
+        <f t="shared" ref="R67:R97" si="1">SUM(M67,N67,O67)</f>
+        <v>2.5525371912890922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>26</v>
       </c>
@@ -4114,8 +4397,12 @@
       <c r="O68" s="1">
         <v>0.261147149612661</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1">
+        <f t="shared" si="1"/>
+        <v>1.42272161354531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>26</v>
       </c>
@@ -4161,8 +4448,12 @@
       <c r="O69" s="1">
         <v>0.251519026304307</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5796449044968961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>26</v>
       </c>
@@ -4208,8 +4499,12 @@
       <c r="O70" s="1">
         <v>0.26125163275443902</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.722453750333373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -4255,8 +4550,12 @@
       <c r="O71" s="1">
         <v>0.25137146587442699</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9754973481921461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>26</v>
       </c>
@@ -4302,8 +4601,12 @@
       <c r="O72" s="1">
         <v>0.26501332236667302</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1">
+        <f t="shared" si="1"/>
+        <v>2.115112613693181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>26</v>
       </c>
@@ -4349,8 +4652,12 @@
       <c r="O73" s="1">
         <v>0.257385460000427</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2958934456081606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -4396,8 +4703,12 @@
       <c r="O74" s="1">
         <v>0.25822752291697498</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1">
+        <f t="shared" si="1"/>
+        <v>1.301390648401733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -4443,8 +4754,12 @@
       <c r="O75" s="1">
         <v>0.239019455346375</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3279307956929201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -4490,8 +4805,12 @@
       <c r="O76" s="1">
         <v>0.24072587661066</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5506939666344217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27</v>
       </c>
@@ -4537,8 +4856,12 @@
       <c r="O77" s="1">
         <v>0.268853733633031</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1">
+        <f t="shared" si="1"/>
+        <v>1.840089545793691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27</v>
       </c>
@@ -4584,8 +4907,12 @@
       <c r="O78" s="1">
         <v>0.25570237562192</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9739222347614209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -4631,8 +4958,12 @@
       <c r="O79" s="1">
         <v>0.26003956555683999</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2687363647244481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -4678,8 +5009,12 @@
       <c r="O80" s="1">
         <v>0.24635032123813899</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1">
+        <f t="shared" si="1"/>
+        <v>1.167190743601072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
@@ -4725,8 +5060,12 @@
       <c r="O81" s="1">
         <v>0.25060024665131803</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3659495441245639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
@@ -4772,8 +5111,12 @@
       <c r="O82" s="1">
         <v>0.258063845463744</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6475319354875062</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
@@ -4819,8 +5162,12 @@
       <c r="O83" s="1">
         <v>0.25285769995074697</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R83" s="1">
+        <f t="shared" si="1"/>
+        <v>1.860738899887552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
@@ -4866,8 +5213,12 @@
       <c r="O84" s="1">
         <v>0.26018298183282201</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R84" s="1">
+        <f t="shared" si="1"/>
+        <v>2.00161561862221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28</v>
       </c>
@@ -4913,8 +5264,12 @@
       <c r="O85" s="1">
         <v>0.27405181089364899</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R85" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3763337469320063</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>29</v>
       </c>
@@ -4960,8 +5315,12 @@
       <c r="O86" s="1">
         <v>0.25564202979905298</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R86" s="1">
+        <f t="shared" si="1"/>
+        <v>1.103393798750878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>29</v>
       </c>
@@ -5007,8 +5366,12 @@
       <c r="O87" s="1">
         <v>0.24578115517165999</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3338050753603761</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>29</v>
       </c>
@@ -5054,8 +5417,12 @@
       <c r="O88" s="1">
         <v>0.244796832950265</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5248979111633918</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>29</v>
       </c>
@@ -5101,8 +5468,12 @@
       <c r="O89" s="1">
         <v>0.24327187634684599</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" s="1">
+        <f t="shared" si="1"/>
+        <v>1.711589246687647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>29</v>
       </c>
@@ -5148,8 +5519,12 @@
       <c r="O90" s="1">
         <v>0.229905765969694</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6699128649433279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>29</v>
       </c>
@@ -5195,8 +5570,12 @@
       <c r="O91" s="1">
         <v>0.25298996325074002</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0589580402434322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>30</v>
       </c>
@@ -5242,8 +5621,12 @@
       <c r="O92" s="1">
         <v>0.22790873236085901</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97829879475937997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>30</v>
       </c>
@@ -5289,8 +5672,12 @@
       <c r="O93" s="1">
         <v>0.26086118268772102</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" s="1">
+        <f t="shared" si="1"/>
+        <v>1.23412448465788</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>30</v>
       </c>
@@ -5336,8 +5723,12 @@
       <c r="O94" s="1">
         <v>0.24263254258259201</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" s="1">
+        <f t="shared" si="1"/>
+        <v>1.343770837340589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>30</v>
       </c>
@@ -5383,8 +5774,12 @@
       <c r="O95" s="1">
         <v>0.24333255974024701</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4343751060952059</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5430,8 +5825,12 @@
       <c r="O96" s="1">
         <v>0.236352188112673</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R96" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6228911847144438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>30</v>
       </c>
@@ -5476,6 +5875,10 @@
       </c>
       <c r="O97" s="1">
         <v>0.24367880299636099</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7355644491313031</v>
       </c>
     </row>
   </sheetData>
